--- a/product_cal_history.xlsx
+++ b/product_cal_history.xlsx
@@ -424,7 +424,7 @@
         <v>44905</v>
       </c>
       <c r="D2" s="2">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="E2">
         <v>0.6</v>
@@ -444,7 +444,7 @@
         <v>44917</v>
       </c>
       <c r="D3" s="2">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="E3">
         <v>0.6</v>
@@ -464,7 +464,7 @@
         <v>44923</v>
       </c>
       <c r="D4" s="2">
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="E4">
         <v>0.6</v>
